--- a/ARC2023ソフトウェア設計書.xlsx
+++ b/ARC2023ソフトウェア設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9750"/>
+    <workbookView windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ソフトウェア仕様" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>要求仕様</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>台車を右方向に旋回する。モータへの通電は500msとする。</t>
+  </si>
+  <si>
+    <t>SET△V_STOP▲</t>
+  </si>
+  <si>
+    <t>台車へのモータ通電を停止する。</t>
   </si>
   <si>
     <t>SET△HEATER_ONOFF▲</t>
@@ -299,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,13 +320,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -328,7 +327,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,22 +377,6 @@
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,25 +401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,11 +417,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,23 +448,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +484,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +562,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,157 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,6 +771,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -783,28 +813,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,17 +843,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,149 +861,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,20 +1070,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4808,7 +4805,7 @@
   <sheetPr/>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4825,90 +4822,90 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4927,9 +4924,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5041,54 +5038,54 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="2:6">
+    <row r="10" customFormat="1" ht="30" customHeight="1" spans="2:6">
       <c r="B10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:6">
       <c r="B11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="F11" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:6">
       <c r="B12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5140,12 +5137,29 @@
         <v>23</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
+    <row r="16" ht="30" customHeight="1" spans="2:6">
+      <c r="B16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5184,31 +5198,31 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="2:10">
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -5219,30 +5233,30 @@
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
       <c r="G15" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
@@ -5253,13 +5267,13 @@
     <row r="17" spans="2:10">
       <c r="B17" s="14"/>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -5269,193 +5283,193 @@
     </row>
     <row r="18" ht="27" spans="2:10">
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15"/>
       <c r="C19" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="15"/>
       <c r="C20" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" s="13">
         <v>3</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="J20" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="15"/>
       <c r="C21" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" s="13">
         <v>4</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="15"/>
       <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="13">
         <v>5</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="15"/>
       <c r="C23" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D23" s="13">
         <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:10">
       <c r="B24" s="14"/>
       <c r="C24" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D24" s="13">
         <v>7</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:10">

--- a/ARC2023ソフトウェア設計書.xlsx
+++ b/ARC2023ソフトウェア設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="ソフトウェア仕様" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>要求仕様</t>
   </si>
@@ -91,25 +91,25 @@
     <t>-</t>
   </si>
   <si>
-    <t>台車を前進させる。モータへの通電は500msとする。</t>
+    <t>台車を前進するためのモータ通電を開始する。</t>
   </si>
   <si>
     <t>SET△V_MOVE_BACKWARD▲</t>
   </si>
   <si>
-    <t>台車を後退させる。モータへの通電は500msとする。</t>
+    <t>台車を後退するためのモータ通電を開始する。</t>
   </si>
   <si>
     <t>SET△V_ROT_LEFT▲</t>
   </si>
   <si>
-    <t>台車を左方向に旋回する。モータへの通電は500msとする。</t>
+    <t>台車を左方向に旋回するためのモータ通電を開始する。</t>
   </si>
   <si>
     <t>SET△V_ROT_RIGHT▲</t>
   </si>
   <si>
-    <t>台車を右方向に旋回する。モータへの通電は500msとする。</t>
+    <t>台車を右方向に旋回するためのモータ通電を開始する。</t>
   </si>
   <si>
     <t>SET△V_STOP▲</t>
@@ -135,39 +135,28 @@
 ・通電後現状のステータス(ON/OFF)を応答する。</t>
   </si>
   <si>
-    <t>SET△RBTHAND_HLDREL▲</t>
-  </si>
-  <si>
-    <t>R_SET△RBTHAND_HLDREL△status▲</t>
-  </si>
-  <si>
-    <t>ロボットハンドの開閉状態を示す文字例：
-'HOLD', 'RELEASE', 'ERROR'のいずれか</t>
-  </si>
-  <si>
-    <t>・ロボットハンドを開閉する。
-・開閉後現状のステータス(開/閉)を応答する。</t>
+    <t>SET△H_MOVE_HLD▲</t>
+  </si>
+  <si>
+    <t>ロボットハンドをホールドするためのモータ通電を開始する。</t>
+  </si>
+  <si>
+    <t>SET△H_MOVE_RLS▲</t>
+  </si>
+  <si>
+    <t>ロボットハンドをリリースするためのモータ通電を開始する。</t>
   </si>
   <si>
     <t>SET△C_MOVE_UPPER▲</t>
   </si>
   <si>
-    <t>クレーンを伸長する。モータへの通電は500msとする。</t>
+    <t>クレーンを伸長するためのモータ通電を開始する。</t>
   </si>
   <si>
     <t>SET△C_MOVE_LOWER▲</t>
   </si>
   <si>
-    <t>クレーンを格納する。モータへの通電は500msとする。</t>
-  </si>
-  <si>
-    <t>SET△B_ROT_LEFT▲</t>
-  </si>
-  <si>
-    <t>クレーンを台座を左方向に旋回する。モータへの通電は500msとする。</t>
-  </si>
-  <si>
-    <t>SET△B_ROT_RIGHT▲</t>
+    <t>クレーンを格納するためのモータ通電を開始する。</t>
   </si>
   <si>
     <t>※△：半角スペース文字、▲：CR文字</t>
@@ -305,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -320,7 +309,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +324,66 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,15 +398,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,69 +407,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,23 +430,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,7 +473,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,55 +611,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,115 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,30 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -806,15 +771,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,8 +793,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,6 +809,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -861,16 +850,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,127 +868,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4805,7 +4794,7 @@
   <sheetPr/>
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4924,9 +4913,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5077,21 +5066,21 @@
         <v>38</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:6">
       <c r="B13" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>23</v>
@@ -5099,16 +5088,16 @@
       <c r="D13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>43</v>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:6">
       <c r="B14" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>23</v>
@@ -5120,12 +5109,12 @@
         <v>23</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:6">
       <c r="B15" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>23</v>
@@ -5137,29 +5126,12 @@
         <v>23</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="2:6">
-      <c r="B16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>49</v>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5198,31 +5170,31 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="2:10">
       <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -5233,30 +5205,30 @@
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
       <c r="G15" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
@@ -5267,13 +5239,13 @@
     <row r="17" spans="2:10">
       <c r="B17" s="14"/>
       <c r="C17" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -5283,193 +5255,193 @@
     </row>
     <row r="18" ht="27" spans="2:10">
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15"/>
       <c r="C19" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="J19" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="15"/>
       <c r="C20" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="13">
         <v>3</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="I20" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="15"/>
       <c r="C21" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="13">
         <v>4</v>
       </c>
       <c r="E21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="15"/>
       <c r="C22" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="13">
         <v>5</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="I22" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="15"/>
       <c r="C23" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="13">
         <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:10">
       <c r="B24" s="14"/>
       <c r="C24" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="13">
         <v>7</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:10">
